--- a/conven_control/data/optimized_result.xlsx
+++ b/conven_control/data/optimized_result.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t xml:space="preserve">Unnamed: 0</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t xml:space="preserve">z_opt_stiffness</t>
+  </si>
+  <si>
+    <t xml:space="preserve">x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
   </si>
   <si>
     <t xml:space="preserve">[ 0.65   -0.35   -0.278  -0.0005  0.7071 -0.0001  0.7071]</t>
@@ -116,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -138,6 +144,14 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,8 +196,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -204,15 +222,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N27" activeCellId="0" sqref="N27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="O26" activeCellId="0" sqref="O26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="1" style="0" width="8.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="19.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.53"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -258,6 +278,12 @@
       <c r="N1" s="0" t="s">
         <v>13</v>
       </c>
+      <c r="S1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="T1" s="0" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -282,7 +308,7 @@
         <v>12.138</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>2.074</v>
@@ -301,6 +327,20 @@
       </c>
       <c r="N2" s="0" t="n">
         <v>1.844</v>
+      </c>
+      <c r="Q2" s="0" t="n">
+        <v>1.931</v>
+      </c>
+      <c r="R2" s="0" t="n">
+        <v>-2.071</v>
+      </c>
+      <c r="S2" s="0" t="n">
+        <f aca="false">I2-Q2</f>
+        <v>0.143</v>
+      </c>
+      <c r="T2" s="0" t="n">
+        <f aca="false">ABS(J2)-ABS(R2)</f>
+        <v>-0.218</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -326,7 +366,7 @@
         <v>3.017</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>2.208</v>
@@ -345,6 +385,20 @@
       </c>
       <c r="N3" s="0" t="n">
         <v>1.758</v>
+      </c>
+      <c r="Q3" s="0" t="n">
+        <v>2.037</v>
+      </c>
+      <c r="R3" s="0" t="n">
+        <v>-1.328</v>
+      </c>
+      <c r="S3" s="0" t="n">
+        <f aca="false">I3-Q3</f>
+        <v>0.171</v>
+      </c>
+      <c r="T3" s="0" t="n">
+        <f aca="false">ABS(J3)-ABS(R3)</f>
+        <v>-0.294</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -370,7 +424,7 @@
         <v>-3.89</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>2.304</v>
@@ -389,6 +443,20 @@
       </c>
       <c r="N4" s="0" t="n">
         <v>1.999</v>
+      </c>
+      <c r="Q4" s="0" t="n">
+        <v>2.138</v>
+      </c>
+      <c r="R4" s="0" t="n">
+        <v>-0.551</v>
+      </c>
+      <c r="S4" s="0" t="n">
+        <f aca="false">I4-Q4</f>
+        <v>0.166</v>
+      </c>
+      <c r="T4" s="0" t="n">
+        <f aca="false">ABS(J4)-ABS(R4)</f>
+        <v>-0.404</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -414,7 +482,7 @@
         <v>-3.171</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>2.313</v>
@@ -433,6 +501,20 @@
       </c>
       <c r="N5" s="0" t="n">
         <v>1.743</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>2.251</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>0.256</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <f aca="false">I5-Q5</f>
+        <v>0.0620000000000003</v>
+      </c>
+      <c r="T5" s="0" t="n">
+        <f aca="false">ABS(J5)-ABS(R5)</f>
+        <v>0.091</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -458,7 +540,7 @@
         <v>0.32</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>2.314</v>
@@ -477,6 +559,20 @@
       </c>
       <c r="N6" s="0" t="n">
         <v>1.504</v>
+      </c>
+      <c r="Q6" s="0" t="n">
+        <v>2.321</v>
+      </c>
+      <c r="R6" s="0" t="n">
+        <v>1.115</v>
+      </c>
+      <c r="S6" s="0" t="n">
+        <f aca="false">I6-Q6</f>
+        <v>-0.00700000000000012</v>
+      </c>
+      <c r="T6" s="0" t="n">
+        <f aca="false">ABS(J6)-ABS(R6)</f>
+        <v>-0.433</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -502,7 +598,7 @@
         <v>10.72</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>2.665</v>
@@ -510,7 +606,7 @@
       <c r="J7" s="0" t="n">
         <v>-1.616</v>
       </c>
-      <c r="K7" s="0" t="n">
+      <c r="K7" s="1" t="n">
         <v>4.857</v>
       </c>
       <c r="L7" s="0" t="n">
@@ -521,6 +617,27 @@
       </c>
       <c r="N7" s="0" t="n">
         <v>1.282</v>
+      </c>
+      <c r="O7" s="1" t="n">
+        <v>5.179</v>
+      </c>
+      <c r="P7" s="0" t="n">
+        <f aca="false">K7-O7</f>
+        <v>-0.322</v>
+      </c>
+      <c r="Q7" s="0" t="n">
+        <v>2.538</v>
+      </c>
+      <c r="R7" s="0" t="n">
+        <v>-1.979</v>
+      </c>
+      <c r="S7" s="1" t="n">
+        <f aca="false">I7-Q7</f>
+        <v>0.127</v>
+      </c>
+      <c r="T7" s="1" t="n">
+        <f aca="false">ABS(J7)-ABS(R7)</f>
+        <v>-0.363</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -546,7 +663,7 @@
         <v>5.125</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>2.851</v>
@@ -554,7 +671,7 @@
       <c r="J8" s="0" t="n">
         <v>-1.046</v>
       </c>
-      <c r="K8" s="0" t="n">
+      <c r="K8" s="1" t="n">
         <v>4.613</v>
       </c>
       <c r="L8" s="0" t="n">
@@ -565,6 +682,27 @@
       </c>
       <c r="N8" s="0" t="n">
         <v>1.163</v>
+      </c>
+      <c r="O8" s="1" t="n">
+        <v>4.835</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <f aca="false">K8-O8</f>
+        <v>-0.222</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R8" s="0" t="n">
+        <v>-1.353</v>
+      </c>
+      <c r="S8" s="1" t="n">
+        <f aca="false">I8-Q8</f>
+        <v>0.0510000000000002</v>
+      </c>
+      <c r="T8" s="1" t="n">
+        <f aca="false">ABS(J8)-ABS(R8)</f>
+        <v>-0.307</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -590,7 +728,7 @@
         <v>0.612</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>2.953</v>
@@ -598,7 +736,7 @@
       <c r="J9" s="0" t="n">
         <v>-0.395</v>
       </c>
-      <c r="K9" s="0" t="n">
+      <c r="K9" s="1" t="n">
         <v>4.437</v>
       </c>
       <c r="L9" s="0" t="n">
@@ -609,6 +747,27 @@
       </c>
       <c r="N9" s="0" t="n">
         <v>1.132</v>
+      </c>
+      <c r="O9" s="1" t="n">
+        <v>4.553</v>
+      </c>
+      <c r="P9" s="0" t="n">
+        <f aca="false">K9-O9</f>
+        <v>-0.116</v>
+      </c>
+      <c r="Q9" s="0" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="R9" s="0" t="n">
+        <v>-0.575</v>
+      </c>
+      <c r="S9" s="1" t="n">
+        <f aca="false">I9-Q9</f>
+        <v>-0.00899999999999945</v>
+      </c>
+      <c r="T9" s="1" t="n">
+        <f aca="false">ABS(J9)-ABS(R9)</f>
+        <v>-0.18</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -634,7 +793,7 @@
         <v>-0.061</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>2.969</v>
@@ -642,7 +801,7 @@
       <c r="J10" s="0" t="n">
         <v>0.182</v>
       </c>
-      <c r="K10" s="0" t="n">
+      <c r="K10" s="1" t="n">
         <v>4.423</v>
       </c>
       <c r="L10" s="0" t="n">
@@ -653,6 +812,27 @@
       </c>
       <c r="N10" s="0" t="n">
         <v>0.945</v>
+      </c>
+      <c r="O10" s="1" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="P10" s="0" t="n">
+        <f aca="false">K10-O10</f>
+        <v>-0.197</v>
+      </c>
+      <c r="Q10" s="0" t="n">
+        <v>3.028</v>
+      </c>
+      <c r="R10" s="0" t="n">
+        <v>0.265</v>
+      </c>
+      <c r="S10" s="1" t="n">
+        <f aca="false">I10-Q10</f>
+        <v>-0.0590000000000002</v>
+      </c>
+      <c r="T10" s="1" t="n">
+        <f aca="false">ABS(J10)-ABS(R10)</f>
+        <v>-0.083</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -678,7 +858,7 @@
         <v>1.498</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>2.929</v>
@@ -686,7 +866,7 @@
       <c r="J11" s="0" t="n">
         <v>0.68</v>
       </c>
-      <c r="K11" s="0" t="n">
+      <c r="K11" s="1" t="n">
         <v>4.521</v>
       </c>
       <c r="L11" s="0" t="n">
@@ -697,6 +877,27 @@
       </c>
       <c r="N11" s="0" t="n">
         <v>0.771</v>
+      </c>
+      <c r="O11" s="1" t="n">
+        <v>4.963</v>
+      </c>
+      <c r="P11" s="0" t="n">
+        <f aca="false">K11-O11</f>
+        <v>-0.442</v>
+      </c>
+      <c r="Q11" s="0" t="n">
+        <v>2.962</v>
+      </c>
+      <c r="R11" s="0" t="n">
+        <v>1.075</v>
+      </c>
+      <c r="S11" s="1" t="n">
+        <f aca="false">I11-Q11</f>
+        <v>-0.0329999999999995</v>
+      </c>
+      <c r="T11" s="1" t="n">
+        <f aca="false">ABS(J11)-ABS(R11)</f>
+        <v>-0.395</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,7 +923,7 @@
         <v>9.935</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>2.574</v>
@@ -730,7 +931,7 @@
       <c r="J12" s="0" t="n">
         <v>-1.156</v>
       </c>
-      <c r="K12" s="0" t="n">
+      <c r="K12" s="1" t="n">
         <v>3.981</v>
       </c>
       <c r="L12" s="0" t="n">
@@ -741,6 +942,27 @@
       </c>
       <c r="N12" s="0" t="n">
         <v>2.253</v>
+      </c>
+      <c r="O12" s="1" t="n">
+        <v>4.045</v>
+      </c>
+      <c r="P12" s="0" t="n">
+        <f aca="false">K12-O12</f>
+        <v>-0.0640000000000001</v>
+      </c>
+      <c r="Q12" s="0" t="n">
+        <v>2.457</v>
+      </c>
+      <c r="R12" s="0" t="n">
+        <v>-1.433</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <f aca="false">I12-Q12</f>
+        <v>0.117</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <f aca="false">ABS(J12)-ABS(R12)</f>
+        <v>-0.277</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -766,7 +988,7 @@
         <v>3.55</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>2.913</v>
@@ -774,7 +996,7 @@
       <c r="J13" s="0" t="n">
         <v>-0.807</v>
       </c>
-      <c r="K13" s="0" t="n">
+      <c r="K13" s="1" t="n">
         <v>4.568</v>
       </c>
       <c r="L13" s="0" t="n">
@@ -785,6 +1007,27 @@
       </c>
       <c r="N13" s="0" t="n">
         <v>1.743</v>
+      </c>
+      <c r="O13" s="1" t="n">
+        <v>4.906</v>
+      </c>
+      <c r="P13" s="0" t="n">
+        <f aca="false">K13-O13</f>
+        <v>-0.338</v>
+      </c>
+      <c r="Q13" s="0" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="R13" s="0" t="n">
+        <v>-1.08</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <f aca="false">I13-Q13</f>
+        <v>-0.0269999999999997</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <f aca="false">ABS(J13)-ABS(R13)</f>
+        <v>-0.273</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -810,7 +1053,7 @@
         <v>1.411</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>3.07</v>
@@ -818,7 +1061,7 @@
       <c r="J14" s="0" t="n">
         <v>-0.345</v>
       </c>
-      <c r="K14" s="0" t="n">
+      <c r="K14" s="1" t="n">
         <v>4.773</v>
       </c>
       <c r="L14" s="0" t="n">
@@ -829,6 +1072,27 @@
       </c>
       <c r="N14" s="0" t="n">
         <v>1.537</v>
+      </c>
+      <c r="O14" s="1" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="P14" s="0" t="n">
+        <f aca="false">K14-O14</f>
+        <v>-0.357</v>
+      </c>
+      <c r="Q14" s="0" t="n">
+        <v>3.168</v>
+      </c>
+      <c r="R14" s="0" t="n">
+        <v>-0.472</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <f aca="false">I14-Q14</f>
+        <v>-0.0980000000000003</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <f aca="false">ABS(J14)-ABS(R14)</f>
+        <v>-0.127</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -854,7 +1118,7 @@
         <v>1.413</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>3.081</v>
@@ -862,7 +1126,7 @@
       <c r="J15" s="0" t="n">
         <v>0.14</v>
       </c>
-      <c r="K15" s="0" t="n">
+      <c r="K15" s="1" t="n">
         <v>4.756</v>
       </c>
       <c r="L15" s="0" t="n">
@@ -873,6 +1137,27 @@
       </c>
       <c r="N15" s="0" t="n">
         <v>1.546</v>
+      </c>
+      <c r="O15" s="1" t="n">
+        <v>5.112</v>
+      </c>
+      <c r="P15" s="0" t="n">
+        <f aca="false">K15-O15</f>
+        <v>-0.356</v>
+      </c>
+      <c r="Q15" s="0" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="R15" s="0" t="n">
+        <v>0.211</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <f aca="false">I15-Q15</f>
+        <v>-0.109</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <f aca="false">ABS(J15)-ABS(R15)</f>
+        <v>-0.071</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -898,7 +1183,7 @@
         <v>2.968</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>2.954</v>
@@ -906,7 +1191,7 @@
       <c r="J16" s="0" t="n">
         <v>0.577</v>
       </c>
-      <c r="K16" s="0" t="n">
+      <c r="K16" s="1" t="n">
         <v>4.53</v>
       </c>
       <c r="L16" s="0" t="n">
@@ -917,6 +1202,27 @@
       </c>
       <c r="N16" s="0" t="n">
         <v>1.471</v>
+      </c>
+      <c r="O16" s="1" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="P16" s="0" t="n">
+        <f aca="false">K16-O16</f>
+        <v>-0.239999999999999</v>
+      </c>
+      <c r="Q16" s="0" t="n">
+        <v>2.979</v>
+      </c>
+      <c r="R16" s="0" t="n">
+        <v>0.817</v>
+      </c>
+      <c r="S16" s="1" t="n">
+        <f aca="false">I16-Q16</f>
+        <v>-0.0249999999999999</v>
+      </c>
+      <c r="T16" s="1" t="n">
+        <f aca="false">ABS(J16)-ABS(R16)</f>
+        <v>-0.24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
